--- a/work_files/spatialAudioMixMat.xlsx
+++ b/work_files/spatialAudioMixMat.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Matrices" sheetId="1" r:id="rId1"/>
-    <sheet name="Panning Function" sheetId="2" r:id="rId2"/>
+    <sheet name="Psychoacoustic Matrices" sheetId="3" r:id="rId2"/>
+    <sheet name="Panning Function" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="37">
   <si>
     <t>FL</t>
   </si>
@@ -127,6 +128,15 @@
   </si>
   <si>
     <t>Optional: I don't have LFE, My LFE is also a height channel</t>
+  </si>
+  <si>
+    <t>Terrarum Spatial Audio Psychoacoustic Mixing Matrices -- Panning and Delay Coefficients</t>
+  </si>
+  <si>
+    <t>Quadraphonic--Panning</t>
+  </si>
+  <si>
+    <t>Quadraphonic--Delay in ms</t>
   </si>
 </sst>
 </file>
@@ -384,6 +394,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="6"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,12 +411,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +460,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1075,6 +1086,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2020,7 +2032,7 @@
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="A9" sqref="A9:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,11 +2044,11 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -2069,22 +2081,22 @@
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -2096,65 +2108,65 @@
       <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="12" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="K9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -2772,28 +2784,28 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="K22" s="12" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="K22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -3406,28 +3418,28 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="K35" s="12" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="K35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
@@ -4040,28 +4052,28 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="A48" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="K48" s="12" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="K48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
@@ -4144,16 +4156,16 @@
       <c r="K50" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="16" t="s">
+      <c r="L50" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
@@ -4186,14 +4198,14 @@
       <c r="K51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L51" s="16"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
@@ -4226,14 +4238,14 @@
       <c r="K52" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
@@ -4266,14 +4278,14 @@
       <c r="K53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
@@ -4306,14 +4318,14 @@
       <c r="K54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L54" s="16"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
@@ -4346,14 +4358,14 @@
       <c r="K55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L55" s="16"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -4386,14 +4398,14 @@
       <c r="K56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L56" s="16"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -4426,14 +4438,14 @@
       <c r="K57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="16"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
@@ -4533,6 +4545,780 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="str">
+        <f>"-3 dB"</f>
+        <v>-3 dB</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.75</v>
+      </c>
+      <c r="C11">
+        <v>0.25</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="C14">
+        <f>-1/8</f>
+        <v>-0.125</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="G14">
+        <f>-1/8</f>
+        <v>-0.125</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <f>-1/8</f>
+        <v>-0.125</v>
+      </c>
+      <c r="C15">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>-1/8</f>
+        <v>-0.125</v>
+      </c>
+      <c r="G15">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.75</v>
+      </c>
+      <c r="G16">
+        <v>-0.25</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>-0.25</v>
+      </c>
+      <c r="G18">
+        <v>0.75</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>-0.4</v>
+      </c>
+      <c r="G19">
+        <v>-0.4</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F5:S7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="K9:S9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
